--- a/GABARITO_jul22.xlsx
+++ b/GABARITO_jul22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Mãe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B910E5A1-D98A-46EE-B608-0A12715C9C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243FD744-20E0-4DB3-A334-86036C71C991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gabarito" sheetId="7" r:id="rId1"/>
@@ -557,9 +557,6 @@
     <t>10511 - PAPEL MAGICO ALFANUMERICO A4 1FL C/ BASTAO</t>
   </si>
   <si>
-    <t xml:space="preserve">00561- KIT PEDAGOGICO OFF PAPER </t>
-  </si>
-  <si>
     <t>QUANT. DE PCTS</t>
   </si>
   <si>
@@ -2053,18 +2050,21 @@
       <t xml:space="preserve"> 50 FLS </t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">00561 - KIT PEDAGOGICO OFF PAPER </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="191" formatCode="0.0"/>
-    <numFmt numFmtId="195" formatCode="00&quot;.&quot;000&quot;.&quot;000&quot;/&quot;0000&quot;-&quot;00"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="00&quot;.&quot;000&quot;.&quot;000&quot;/&quot;0000&quot;-&quot;00"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2163,45 +2163,8 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="10"/>
-      <color indexed="63"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="63"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="63"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="10"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2901,64 +2864,64 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2968,126 +2931,126 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="191" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="191" fontId="28" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="28" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="28" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="9" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="9" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="28" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="22" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="6" fillId="6" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="6" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="28" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="27" fillId="7" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="22" fillId="7" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="29" fillId="7" borderId="16" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="24" fillId="7" borderId="16" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="191" fontId="29" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="24" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="29" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="24" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="22" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="27" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="22" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -3100,219 +3063,91 @@
     <xf numFmtId="1" fontId="6" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="191" fontId="27" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="26" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="27" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="26" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="27" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="26" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="27" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="26" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="27" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="22" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="28" fillId="0" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="23" fillId="0" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="27" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="26" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="27" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="26" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="27" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="183" fontId="27" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="27" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="195" fontId="27" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="195" fontId="27" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="195" fontId="27" fillId="2" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="27" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3321,99 +3156,172 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="2" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
-    <cellStyle name="Moeda 2" xfId="3"/>
-    <cellStyle name="Moeda 2 2" xfId="4"/>
-    <cellStyle name="Moeda 3" xfId="5"/>
+    <cellStyle name="Moeda 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Moeda 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Moeda 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="6"/>
-    <cellStyle name="Normal 3" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Porcentagem" xfId="8" builtinId="5"/>
-    <cellStyle name="Porcentagem 2" xfId="9"/>
-    <cellStyle name="Porcentagem 2 2" xfId="10"/>
-    <cellStyle name="Vírgula 2" xfId="11"/>
-    <cellStyle name="Vírgula 2 2" xfId="12"/>
+    <cellStyle name="Porcentagem 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Porcentagem 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Vírgula 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Vírgula 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1" tint="0.14999847407452621"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -3753,7 +3661,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.0"/>
+      <numFmt numFmtId="166" formatCode="0.0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -3785,7 +3693,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.0"/>
+      <numFmt numFmtId="166" formatCode="0.0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -3817,7 +3725,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="191" formatCode="0.0"/>
+      <numFmt numFmtId="166" formatCode="0.0"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -3871,6 +3779,61 @@
           <color theme="1" tint="0.499984740745262"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4261,26 +4224,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela5" displayName="Tabela5" ref="A13:M202" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A13:M202"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela5" displayName="Tabela5" ref="A13:M202" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
+  <autoFilter ref="A13:M202" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="CÓD. PROD." dataDxfId="15"/>
-    <tableColumn id="2" name="CÓD. NOTA" dataDxfId="14"/>
-    <tableColumn id="3" name="DESCRIÇÃO" dataDxfId="13"/>
-    <tableColumn id="4" name="UNID. VENDA EM PCTS" dataDxfId="12"/>
-    <tableColumn id="5" name="QUANT. DE PCTS" dataDxfId="11" dataCellStyle="Moeda"/>
-    <tableColumn id="6" name="PREÇO" dataDxfId="10" dataCellStyle="Moeda"/>
-    <tableColumn id="7" name="+IPI" dataDxfId="9" dataCellStyle="Porcentagem"/>
-    <tableColumn id="8" name="PRECO TOTAL SEM IPI" dataDxfId="8" dataCellStyle="Moeda">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CÓD. PROD." dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CÓD. NOTA" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="DESCRIÇÃO" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="UNID. VENDA EM PCTS" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="QUANT. DE PCTS" dataDxfId="8" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="PREÇO" dataDxfId="7" dataCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="+IPI" dataDxfId="6" dataCellStyle="Porcentagem"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="PRECO TOTAL SEM IPI" dataDxfId="5" dataCellStyle="Moeda">
       <calculatedColumnFormula>E14*F14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="PRECO TOTAL COM IPI" dataDxfId="7" dataCellStyle="Moeda">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="PRECO TOTAL COM IPI" dataDxfId="4" dataCellStyle="Moeda">
       <calculatedColumnFormula>H14*(1+G14)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Nº VOLUMES" dataDxfId="6"/>
-    <tableColumn id="11" name="PESO DO PACOTE (KG)" dataDxfId="5"/>
-    <tableColumn id="12" name="PESO DO VOLUME (KG)" dataDxfId="4"/>
-    <tableColumn id="13" name="CUBAGEM DO VOLUME A  x  L  x  C" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Nº VOLUMES" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="PESO DO PACOTE (KG)" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="PESO DO VOLUME (KG)" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="CUBAGEM DO VOLUME A  x  L  x  C" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4606,11 +4569,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M208"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:M3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4631,218 +4594,218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="100"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="110"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="113"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="103"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="113"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="101" t="s">
-        <v>190</v>
-      </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="103"/>
+      <c r="A4" s="111" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="113"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="104" t="s">
-        <v>278</v>
-      </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="106"/>
+      <c r="A5" s="114" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="116"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="81"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="91"/>
       <c r="I6" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="91"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="93"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="103"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
+      <c r="A7" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="93"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
       <c r="E7" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="94"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="96"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="106"/>
       <c r="I7" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="79"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="97"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="107"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="85"/>
+      <c r="B8" s="93"/>
       <c r="C8" s="71"/>
       <c r="D8" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
       <c r="H8" s="70" t="s">
-        <v>188</v>
-      </c>
-      <c r="I8" s="79"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="81"/>
+        <v>187</v>
+      </c>
+      <c r="I8" s="85"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="91"/>
       <c r="L8" s="57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M8" s="37"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="85"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="71"/>
       <c r="D9" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="81"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="91"/>
       <c r="I9" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="82"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="84"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="119"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="85"/>
+      <c r="B10" s="93"/>
       <c r="C10" s="24"/>
       <c r="D10" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="85" t="s">
+      <c r="E10" s="85"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="86"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="88"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="122"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="85"/>
+      <c r="B11" s="93"/>
       <c r="C11" s="22"/>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="117"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="87"/>
       <c r="I11" s="58" t="s">
-        <v>328</v>
-      </c>
-      <c r="J11" s="116">
+        <v>327</v>
+      </c>
+      <c r="J11" s="84">
         <f>H203</f>
         <v>0</v>
       </c>
-      <c r="K11" s="116"/>
+      <c r="K11" s="84"/>
       <c r="L11" s="58" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M11" s="73">
         <f>I203</f>
@@ -4850,37 +4813,37 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="110"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="113"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="100"/>
     </row>
     <row r="13" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="43" t="s">
         <v>134</v>
       </c>
       <c r="B13" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="C13" s="45" t="s">
         <v>324</v>
       </c>
-      <c r="C13" s="45" t="s">
-        <v>325</v>
-      </c>
       <c r="D13" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F13" s="46" t="s">
         <v>6</v>
@@ -4889,16 +4852,16 @@
         <v>171</v>
       </c>
       <c r="H13" s="46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I13" s="46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J13" s="48" t="s">
         <v>58</v>
       </c>
       <c r="K13" s="46" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L13" s="46" t="s">
         <v>61</v>
@@ -4912,7 +4875,7 @@
         <v>9965</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>173</v>
+        <v>394</v>
       </c>
       <c r="C14" s="65"/>
       <c r="D14" s="25" t="s">
@@ -4943,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -4982,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -5021,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5029,7 +4992,7 @@
         <v>9910</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C17" s="65"/>
       <c r="D17" s="25" t="s">
@@ -5060,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5068,7 +5031,7 @@
         <v>9613</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C18" s="67"/>
       <c r="D18" s="25" t="s">
@@ -5100,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5108,7 +5071,7 @@
         <v>1099</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C19" s="67"/>
       <c r="D19" s="25" t="s">
@@ -5139,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5179,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="39" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5187,7 +5150,7 @@
         <v>9682</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C21" s="67"/>
       <c r="D21" s="25" t="s">
@@ -5219,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="39" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -5227,7 +5190,7 @@
         <v>9644</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C22" s="63"/>
       <c r="D22" s="25" t="s">
@@ -5259,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5267,7 +5230,7 @@
         <v>9651</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C23" s="65"/>
       <c r="D23" s="25" t="s">
@@ -5299,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -5307,7 +5270,7 @@
         <v>9637</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C24" s="63"/>
       <c r="D24" s="25" t="s">
@@ -5339,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="39" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5347,7 +5310,7 @@
         <v>9620</v>
       </c>
       <c r="B25" s="64" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C25" s="65"/>
       <c r="D25" s="25" t="s">
@@ -5379,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="39" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -5418,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -5426,7 +5389,7 @@
         <v>3253</v>
       </c>
       <c r="B27" s="54" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="25" t="s">
@@ -5457,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -5465,7 +5428,7 @@
         <v>1310</v>
       </c>
       <c r="B28" s="54" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="25" t="s">
@@ -5496,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -5535,7 +5498,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -5543,7 +5506,7 @@
         <v>3246</v>
       </c>
       <c r="B30" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="25" t="s">
@@ -5567,14 +5530,14 @@
         <v>0</v>
       </c>
       <c r="K30" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L30" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M30" s="39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5582,7 +5545,7 @@
         <v>1341</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C31" s="65"/>
       <c r="D31" s="25" t="s">
@@ -5606,14 +5569,14 @@
         <v>0</v>
       </c>
       <c r="K31" s="35" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L31" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M31" s="39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -5653,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -5693,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="39" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -5701,7 +5664,7 @@
         <v>4373</v>
       </c>
       <c r="B34" s="54" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="25" t="s">
@@ -5732,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -5771,7 +5734,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -5810,7 +5773,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="39" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -5849,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -5857,7 +5820,7 @@
         <v>8883</v>
       </c>
       <c r="B38" s="54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="25" t="s">
@@ -5888,7 +5851,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -5927,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -5966,15 +5929,15 @@
         <v>0</v>
       </c>
       <c r="M40" s="39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41" s="62" t="s">
         <v>191</v>
-      </c>
-      <c r="B41" s="62" t="s">
-        <v>192</v>
       </c>
       <c r="C41" s="63"/>
       <c r="D41" s="25" t="s">
@@ -6005,15 +5968,15 @@
         <v>0</v>
       </c>
       <c r="M41" s="39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="B42" s="54" t="s">
         <v>193</v>
-      </c>
-      <c r="B42" s="54" t="s">
-        <v>194</v>
       </c>
       <c r="C42" s="23"/>
       <c r="D42" s="25" t="s">
@@ -6044,15 +6007,15 @@
         <v>0</v>
       </c>
       <c r="M42" s="39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="B43" s="54" t="s">
         <v>195</v>
-      </c>
-      <c r="B43" s="54" t="s">
-        <v>196</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="25" t="s">
@@ -6083,15 +6046,15 @@
         <v>0</v>
       </c>
       <c r="M43" s="39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="B44" s="54" t="s">
         <v>197</v>
-      </c>
-      <c r="B44" s="54" t="s">
-        <v>198</v>
       </c>
       <c r="C44" s="23"/>
       <c r="D44" s="25" t="s">
@@ -6122,15 +6085,15 @@
         <v>0</v>
       </c>
       <c r="M44" s="39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="B45" s="64" t="s">
         <v>199</v>
-      </c>
-      <c r="B45" s="64" t="s">
-        <v>200</v>
       </c>
       <c r="C45" s="65"/>
       <c r="D45" s="25" t="s">
@@ -6161,15 +6124,15 @@
         <v>0</v>
       </c>
       <c r="M45" s="39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B46" s="62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C46" s="63"/>
       <c r="D46" s="25" t="s">
@@ -6193,22 +6156,22 @@
         <v>0</v>
       </c>
       <c r="K46" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L46" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M46" s="39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B47" s="54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C47" s="23"/>
       <c r="D47" s="25" t="s">
@@ -6239,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -6247,7 +6210,7 @@
         <v>8111</v>
       </c>
       <c r="B48" s="54" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C48" s="23"/>
       <c r="D48" s="25" t="s">
@@ -6278,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -6286,7 +6249,7 @@
         <v>8128</v>
       </c>
       <c r="B49" s="54" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C49" s="23"/>
       <c r="D49" s="25" t="s">
@@ -6317,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -6325,7 +6288,7 @@
         <v>8012</v>
       </c>
       <c r="B50" s="54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C50" s="23"/>
       <c r="D50" s="25" t="s">
@@ -6356,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -6364,7 +6327,7 @@
         <v>8029</v>
       </c>
       <c r="B51" s="64" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C51" s="65"/>
       <c r="D51" s="25" t="s">
@@ -6395,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -6403,7 +6366,7 @@
         <v>8135</v>
       </c>
       <c r="B52" s="64" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C52" s="65"/>
       <c r="D52" s="25" t="s">
@@ -6434,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -6442,7 +6405,7 @@
         <v>8149</v>
       </c>
       <c r="B53" s="64" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C53" s="65"/>
       <c r="D53" s="25" t="s">
@@ -6473,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -6512,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -6551,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -6590,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -6629,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -6668,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -6707,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -6746,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -6785,7 +6748,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -6824,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -6863,7 +6826,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -6902,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -6941,7 +6904,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -6980,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -7019,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -7058,7 +7021,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -7097,7 +7060,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -7136,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -7175,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="M71" s="39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -7214,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="M72" s="39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -7253,7 +7216,7 @@
         <v>0</v>
       </c>
       <c r="M73" s="39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -7292,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="M74" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -7331,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="M75" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -7370,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="M76" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -7409,7 +7372,7 @@
         <v>0</v>
       </c>
       <c r="M77" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -7448,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="M78" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -7487,7 +7450,7 @@
         <v>0</v>
       </c>
       <c r="M79" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -7526,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="M80" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -7565,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -7604,7 +7567,7 @@
         <v>0</v>
       </c>
       <c r="M82" s="39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -7643,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -7682,7 +7645,7 @@
         <v>0</v>
       </c>
       <c r="M84" s="39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -7721,7 +7684,7 @@
         <v>0</v>
       </c>
       <c r="M85" s="39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -7760,7 +7723,7 @@
         <v>0</v>
       </c>
       <c r="M86" s="39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -7799,7 +7762,7 @@
         <v>0</v>
       </c>
       <c r="M87" s="39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -7838,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="M88" s="39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -7877,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="M89" s="39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -7916,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="M90" s="39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -7955,7 +7918,7 @@
         <v>0</v>
       </c>
       <c r="M91" s="39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -7963,7 +7926,7 @@
         <v>9989</v>
       </c>
       <c r="B92" s="62" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C92" s="63"/>
       <c r="D92" s="25" t="s">
@@ -7994,7 +7957,7 @@
         <v>0</v>
       </c>
       <c r="M92" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -8002,7 +7965,7 @@
         <v>9972</v>
       </c>
       <c r="B93" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C93" s="23"/>
       <c r="D93" s="25" t="s">
@@ -8033,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="M93" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -8041,7 +8004,7 @@
         <v>2539</v>
       </c>
       <c r="B94" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C94" s="23"/>
       <c r="D94" s="25" t="s">
@@ -8072,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="M94" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -8080,7 +8043,7 @@
         <v>1501</v>
       </c>
       <c r="B95" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C95" s="23"/>
       <c r="D95" s="25" t="s">
@@ -8111,7 +8074,7 @@
         <v>0</v>
       </c>
       <c r="M95" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -8119,7 +8082,7 @@
         <v>2522</v>
       </c>
       <c r="B96" s="64" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C96" s="65"/>
       <c r="D96" s="25" t="s">
@@ -8150,7 +8113,7 @@
         <v>0</v>
       </c>
       <c r="M96" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -8158,7 +8121,7 @@
         <v>1389</v>
       </c>
       <c r="B97" s="75" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C97" s="76"/>
       <c r="D97" s="25" t="s">
@@ -8189,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="M97" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -8197,7 +8160,7 @@
         <v>1426</v>
       </c>
       <c r="B98" s="75" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C98" s="76"/>
       <c r="D98" s="25" t="s">
@@ -8228,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="M98" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -8236,7 +8199,7 @@
         <v>1433</v>
       </c>
       <c r="B99" s="75" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C99" s="76"/>
       <c r="D99" s="25" t="s">
@@ -8267,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="M99" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -8275,7 +8238,7 @@
         <v>1440</v>
       </c>
       <c r="B100" s="75" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C100" s="76"/>
       <c r="D100" s="25" t="s">
@@ -8306,7 +8269,7 @@
         <v>0</v>
       </c>
       <c r="M100" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -8314,7 +8277,7 @@
         <v>1365</v>
       </c>
       <c r="B101" s="75" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C101" s="76"/>
       <c r="D101" s="25" t="s">
@@ -8345,7 +8308,7 @@
         <v>0</v>
       </c>
       <c r="M101" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -8353,7 +8316,7 @@
         <v>1372</v>
       </c>
       <c r="B102" s="75" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C102" s="76"/>
       <c r="D102" s="25" t="s">
@@ -8384,7 +8347,7 @@
         <v>0</v>
       </c>
       <c r="M102" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -8423,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="M103" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -8462,7 +8425,7 @@
         <v>0</v>
       </c>
       <c r="M104" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -8501,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="M105" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -8540,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="M106" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -8579,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="M107" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -8618,7 +8581,7 @@
         <v>0</v>
       </c>
       <c r="M108" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -8657,7 +8620,7 @@
         <v>0</v>
       </c>
       <c r="M109" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -8696,7 +8659,7 @@
         <v>0</v>
       </c>
       <c r="M110" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -8704,11 +8667,11 @@
         <v>1716</v>
       </c>
       <c r="B111" s="75" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C111" s="76"/>
       <c r="D111" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E111" s="50"/>
       <c r="F111" s="51"/>
@@ -8735,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="M111" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -8774,7 +8737,7 @@
         <v>0</v>
       </c>
       <c r="M112" s="39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -8813,7 +8776,7 @@
         <v>0</v>
       </c>
       <c r="M113" s="39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -8852,7 +8815,7 @@
         <v>0</v>
       </c>
       <c r="M114" s="39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -8891,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="M115" s="39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -8930,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="M116" s="39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -8969,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="M117" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -9008,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="M118" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -9047,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="M119" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -9086,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="M120" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -9125,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="M121" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -9164,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="M122" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -9172,7 +9135,7 @@
         <v>9552</v>
       </c>
       <c r="B123" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C123" s="23"/>
       <c r="D123" s="25" t="s">
@@ -9203,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="M123" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="124" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -9211,7 +9174,7 @@
         <v>9583</v>
       </c>
       <c r="B124" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C124" s="23"/>
       <c r="D124" s="25" t="s">
@@ -9242,7 +9205,7 @@
         <v>0</v>
       </c>
       <c r="M124" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -9250,7 +9213,7 @@
         <v>9538</v>
       </c>
       <c r="B125" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C125" s="23"/>
       <c r="D125" s="25" t="s">
@@ -9281,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="M125" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -9289,7 +9252,7 @@
         <v>9545</v>
       </c>
       <c r="B126" s="54" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C126" s="23"/>
       <c r="D126" s="25" t="s">
@@ -9320,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="M126" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -9328,7 +9291,7 @@
         <v>9569</v>
       </c>
       <c r="B127" s="54" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C127" s="23"/>
       <c r="D127" s="25" t="s">
@@ -9359,7 +9322,7 @@
         <v>0</v>
       </c>
       <c r="M127" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -9367,7 +9330,7 @@
         <v>9576</v>
       </c>
       <c r="B128" s="64" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C128" s="65"/>
       <c r="D128" s="25" t="s">
@@ -9398,7 +9361,7 @@
         <v>0</v>
       </c>
       <c r="M128" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -9437,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="M129" s="39" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -9445,7 +9408,7 @@
         <v>27</v>
       </c>
       <c r="B130" s="54" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C130" s="23"/>
       <c r="D130" s="25" t="s">
@@ -9476,7 +9439,7 @@
         <v>0</v>
       </c>
       <c r="M130" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -9484,7 +9447,7 @@
         <v>28</v>
       </c>
       <c r="B131" s="54" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C131" s="23"/>
       <c r="D131" s="25" t="s">
@@ -9515,7 +9478,7 @@
         <v>0</v>
       </c>
       <c r="M131" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -9523,7 +9486,7 @@
         <v>29</v>
       </c>
       <c r="B132" s="54" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C132" s="23"/>
       <c r="D132" s="25" t="s">
@@ -9554,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="M132" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -9593,7 +9556,7 @@
         <v>0</v>
       </c>
       <c r="M133" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -9632,7 +9595,7 @@
         <v>0</v>
       </c>
       <c r="M134" s="39" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -9640,7 +9603,7 @@
         <v>32</v>
       </c>
       <c r="B135" s="54" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C135" s="23"/>
       <c r="D135" s="25" t="s">
@@ -9671,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="M135" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -9679,7 +9642,7 @@
         <v>33</v>
       </c>
       <c r="B136" s="54" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C136" s="23"/>
       <c r="D136" s="25" t="s">
@@ -9710,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="M136" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -9718,7 +9681,7 @@
         <v>34</v>
       </c>
       <c r="B137" s="54" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C137" s="23"/>
       <c r="D137" s="25" t="s">
@@ -9749,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="M137" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -9788,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="M138" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -9827,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="M139" s="39" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="140" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -9835,7 +9798,7 @@
         <v>37</v>
       </c>
       <c r="B140" s="54" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C140" s="23"/>
       <c r="D140" s="25" t="s">
@@ -9866,7 +9829,7 @@
         <v>0</v>
       </c>
       <c r="M140" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -9874,7 +9837,7 @@
         <v>38</v>
       </c>
       <c r="B141" s="54" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C141" s="23"/>
       <c r="D141" s="25" t="s">
@@ -9905,7 +9868,7 @@
         <v>0</v>
       </c>
       <c r="M141" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="142" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -9913,7 +9876,7 @@
         <v>39</v>
       </c>
       <c r="B142" s="54" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C142" s="23"/>
       <c r="D142" s="25" t="s">
@@ -9944,7 +9907,7 @@
         <v>0</v>
       </c>
       <c r="M142" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="143" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -9952,7 +9915,7 @@
         <v>40</v>
       </c>
       <c r="B143" s="54" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C143" s="23"/>
       <c r="D143" s="25" t="s">
@@ -9983,7 +9946,7 @@
         <v>0</v>
       </c>
       <c r="M143" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="144" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -10022,7 +9985,7 @@
         <v>0</v>
       </c>
       <c r="M144" s="39" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="145" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -10030,7 +9993,7 @@
         <v>42</v>
       </c>
       <c r="B145" s="54" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C145" s="23"/>
       <c r="D145" s="25" t="s">
@@ -10061,7 +10024,7 @@
         <v>0</v>
       </c>
       <c r="M145" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -10069,7 +10032,7 @@
         <v>43</v>
       </c>
       <c r="B146" s="54" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C146" s="23"/>
       <c r="D146" s="25" t="s">
@@ -10100,7 +10063,7 @@
         <v>0</v>
       </c>
       <c r="M146" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="147" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -10108,7 +10071,7 @@
         <v>44</v>
       </c>
       <c r="B147" s="54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C147" s="23"/>
       <c r="D147" s="25" t="s">
@@ -10139,7 +10102,7 @@
         <v>0</v>
       </c>
       <c r="M147" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="148" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -10147,7 +10110,7 @@
         <v>45</v>
       </c>
       <c r="B148" s="54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C148" s="23"/>
       <c r="D148" s="25" t="s">
@@ -10178,7 +10141,7 @@
         <v>0</v>
       </c>
       <c r="M148" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -10217,7 +10180,7 @@
         <v>0</v>
       </c>
       <c r="M149" s="39" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="150" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -10256,7 +10219,7 @@
         <v>0</v>
       </c>
       <c r="M150" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -10264,7 +10227,7 @@
         <v>48</v>
       </c>
       <c r="B151" s="54" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C151" s="23"/>
       <c r="D151" s="25" t="s">
@@ -10295,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="M151" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -10303,7 +10266,7 @@
         <v>49</v>
       </c>
       <c r="B152" s="54" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C152" s="23"/>
       <c r="D152" s="25" t="s">
@@ -10334,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="M152" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="153" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -10342,7 +10305,7 @@
         <v>50</v>
       </c>
       <c r="B153" s="54" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C153" s="23"/>
       <c r="D153" s="25" t="s">
@@ -10373,7 +10336,7 @@
         <v>0</v>
       </c>
       <c r="M153" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="154" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -10412,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="M154" s="39" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="155" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -10451,7 +10414,7 @@
         <v>0</v>
       </c>
       <c r="M155" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="156" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -10459,7 +10422,7 @@
         <v>52</v>
       </c>
       <c r="B156" s="62" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C156" s="63"/>
       <c r="D156" s="25" t="s">
@@ -10490,7 +10453,7 @@
         <v>0</v>
       </c>
       <c r="M156" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="157" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -10498,7 +10461,7 @@
         <v>53</v>
       </c>
       <c r="B157" s="64" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C157" s="65"/>
       <c r="D157" s="25" t="s">
@@ -10529,7 +10492,7 @@
         <v>0</v>
       </c>
       <c r="M157" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="158" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -10537,7 +10500,7 @@
         <v>2287</v>
       </c>
       <c r="B158" s="77" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C158" s="78"/>
       <c r="D158" s="25" t="s">
@@ -10568,7 +10531,7 @@
         <v>0</v>
       </c>
       <c r="M158" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="159" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -10576,7 +10539,7 @@
         <v>3055</v>
       </c>
       <c r="B159" s="77" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C159" s="78"/>
       <c r="D159" s="25" t="s">
@@ -10607,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="M159" s="39" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="160" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -10615,7 +10578,7 @@
         <v>8869</v>
       </c>
       <c r="B160" s="62" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C160" s="63"/>
       <c r="D160" s="25" t="s">
@@ -10646,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="M160" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -10654,7 +10617,7 @@
         <v>8968</v>
       </c>
       <c r="B161" s="54" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C161" s="23"/>
       <c r="D161" s="25" t="s">
@@ -10685,7 +10648,7 @@
         <v>0</v>
       </c>
       <c r="M161" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="162" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -10693,7 +10656,7 @@
         <v>8999</v>
       </c>
       <c r="B162" s="64" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C162" s="65"/>
       <c r="D162" s="25" t="s">
@@ -10724,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="M162" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="163" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -10763,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="M163" s="39" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="164" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -10802,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="M164" s="39" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="165" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -10810,7 +10773,7 @@
         <v>9934</v>
       </c>
       <c r="B165" s="62" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C165" s="63"/>
       <c r="D165" s="25" t="s">
@@ -10841,7 +10804,7 @@
         <v>0</v>
       </c>
       <c r="M165" s="39" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="166" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -10849,7 +10812,7 @@
         <v>9941</v>
       </c>
       <c r="B166" s="54" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C166" s="23"/>
       <c r="D166" s="25" t="s">
@@ -10880,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="M166" s="39" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="167" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -10888,7 +10851,7 @@
         <v>9187</v>
       </c>
       <c r="B167" s="54" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C167" s="23"/>
       <c r="D167" s="25" t="s">
@@ -10919,7 +10882,7 @@
         <v>0</v>
       </c>
       <c r="M167" s="39" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="168" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -10927,7 +10890,7 @@
         <v>9194</v>
       </c>
       <c r="B168" s="54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C168" s="23"/>
       <c r="D168" s="25" t="s">
@@ -10958,7 +10921,7 @@
         <v>0</v>
       </c>
       <c r="M168" s="39" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="169" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -10966,7 +10929,7 @@
         <v>9200</v>
       </c>
       <c r="B169" s="54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C169" s="23"/>
       <c r="D169" s="25" t="s">
@@ -10997,7 +10960,7 @@
         <v>0</v>
       </c>
       <c r="M169" s="39" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="170" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -11005,7 +10968,7 @@
         <v>9217</v>
       </c>
       <c r="B170" s="54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C170" s="23"/>
       <c r="D170" s="25" t="s">
@@ -11036,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="M170" s="39" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="171" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -11044,7 +11007,7 @@
         <v>54</v>
       </c>
       <c r="B171" s="54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C171" s="23"/>
       <c r="D171" s="25" t="s">
@@ -11075,7 +11038,7 @@
         <v>0</v>
       </c>
       <c r="M171" s="39" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="172" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -11114,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="M172" s="39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="173" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -11122,7 +11085,7 @@
         <v>2355</v>
       </c>
       <c r="B173" s="62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C173" s="63"/>
       <c r="D173" s="25" t="s">
@@ -11153,7 +11116,7 @@
         <v>0</v>
       </c>
       <c r="M173" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="174" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -11161,7 +11124,7 @@
         <v>2362</v>
       </c>
       <c r="B174" s="54" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C174" s="23"/>
       <c r="D174" s="25" t="s">
@@ -11192,7 +11155,7 @@
         <v>0</v>
       </c>
       <c r="M174" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="175" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -11200,7 +11163,7 @@
         <v>2379</v>
       </c>
       <c r="B175" s="54" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C175" s="23"/>
       <c r="D175" s="25" t="s">
@@ -11231,7 +11194,7 @@
         <v>0</v>
       </c>
       <c r="M175" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="176" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -11239,7 +11202,7 @@
         <v>2386</v>
       </c>
       <c r="B176" s="54" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C176" s="23"/>
       <c r="D176" s="25" t="s">
@@ -11270,7 +11233,7 @@
         <v>0</v>
       </c>
       <c r="M176" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="177" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -11278,7 +11241,7 @@
         <v>2393</v>
       </c>
       <c r="B177" s="54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C177" s="23"/>
       <c r="D177" s="25" t="s">
@@ -11309,7 +11272,7 @@
         <v>0</v>
       </c>
       <c r="M177" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="178" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -11317,7 +11280,7 @@
         <v>2706</v>
       </c>
       <c r="B178" s="54" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C178" s="23"/>
       <c r="D178" s="25" t="s">
@@ -11348,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="M178" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="179" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -11356,7 +11319,7 @@
         <v>2560</v>
       </c>
       <c r="B179" s="54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C179" s="23"/>
       <c r="D179" s="25" t="s">
@@ -11387,7 +11350,7 @@
         <v>0</v>
       </c>
       <c r="M179" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="180" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -11395,7 +11358,7 @@
         <v>2577</v>
       </c>
       <c r="B180" s="54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C180" s="23"/>
       <c r="D180" s="25" t="s">
@@ -11426,7 +11389,7 @@
         <v>0</v>
       </c>
       <c r="M180" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="181" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -11434,7 +11397,7 @@
         <v>2584</v>
       </c>
       <c r="B181" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C181" s="23"/>
       <c r="D181" s="25" t="s">
@@ -11465,7 +11428,7 @@
         <v>0</v>
       </c>
       <c r="M181" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="182" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -11473,7 +11436,7 @@
         <v>2591</v>
       </c>
       <c r="B182" s="54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C182" s="23"/>
       <c r="D182" s="25" t="s">
@@ -11504,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="M182" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="183" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -11512,7 +11475,7 @@
         <v>2898</v>
       </c>
       <c r="B183" s="54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C183" s="23"/>
       <c r="D183" s="25" t="s">
@@ -11543,7 +11506,7 @@
         <v>0</v>
       </c>
       <c r="M183" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="184" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -11551,7 +11514,7 @@
         <v>2928</v>
       </c>
       <c r="B184" s="64" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C184" s="65"/>
       <c r="D184" s="25" t="s">
@@ -11582,7 +11545,7 @@
         <v>0</v>
       </c>
       <c r="M184" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="185" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -11590,7 +11553,7 @@
         <v>2959</v>
       </c>
       <c r="B185" s="62" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C185" s="63"/>
       <c r="D185" s="25" t="s">
@@ -11621,7 +11584,7 @@
         <v>0</v>
       </c>
       <c r="M185" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="186" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -11629,7 +11592,7 @@
         <v>2972</v>
       </c>
       <c r="B186" s="54" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C186" s="23"/>
       <c r="D186" s="25" t="s">
@@ -11660,7 +11623,7 @@
         <v>0</v>
       </c>
       <c r="M186" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -11668,7 +11631,7 @@
         <v>2980</v>
       </c>
       <c r="B187" s="54" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C187" s="23"/>
       <c r="D187" s="25" t="s">
@@ -11699,7 +11662,7 @@
         <v>0</v>
       </c>
       <c r="M187" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="188" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -11707,7 +11670,7 @@
         <v>2997</v>
       </c>
       <c r="B188" s="54" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C188" s="23"/>
       <c r="D188" s="25" t="s">
@@ -11738,7 +11701,7 @@
         <v>0</v>
       </c>
       <c r="M188" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="189" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -11746,7 +11709,7 @@
         <v>2249</v>
       </c>
       <c r="B189" s="54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C189" s="23"/>
       <c r="D189" s="25" t="s">
@@ -11777,15 +11740,15 @@
         <v>0</v>
       </c>
       <c r="M189" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="190" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B190" s="54" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C190" s="23"/>
       <c r="D190" s="25" t="s">
@@ -11816,7 +11779,7 @@
         <v>0</v>
       </c>
       <c r="M190" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="191" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -11824,7 +11787,7 @@
         <v>8876</v>
       </c>
       <c r="B191" s="54" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C191" s="23"/>
       <c r="D191" s="25" t="s">
@@ -11855,7 +11818,7 @@
         <v>0</v>
       </c>
       <c r="M191" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="192" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -11863,7 +11826,7 @@
         <v>2799</v>
       </c>
       <c r="B192" s="64" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C192" s="65"/>
       <c r="D192" s="25" t="s">
@@ -11894,7 +11857,7 @@
         <v>0</v>
       </c>
       <c r="M192" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="193" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -11902,7 +11865,7 @@
         <v>7428</v>
       </c>
       <c r="B193" s="62" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C193" s="63"/>
       <c r="D193" s="25" t="s">
@@ -11933,7 +11896,7 @@
         <v>0</v>
       </c>
       <c r="M193" s="39" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="194" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -11941,7 +11904,7 @@
         <v>7435</v>
       </c>
       <c r="B194" s="54" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C194" s="23"/>
       <c r="D194" s="25" t="s">
@@ -11972,7 +11935,7 @@
         <v>0</v>
       </c>
       <c r="M194" s="39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="195" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -11980,7 +11943,7 @@
         <v>7442</v>
       </c>
       <c r="B195" s="54" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C195" s="23"/>
       <c r="D195" s="25" t="s">
@@ -12011,7 +11974,7 @@
         <v>0</v>
       </c>
       <c r="M195" s="39" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="196" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -12019,7 +11982,7 @@
         <v>7459</v>
       </c>
       <c r="B196" s="54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C196" s="23"/>
       <c r="D196" s="25" t="s">
@@ -12050,7 +12013,7 @@
         <v>0</v>
       </c>
       <c r="M196" s="39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="197" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -12058,7 +12021,7 @@
         <v>8838</v>
       </c>
       <c r="B197" s="54" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C197" s="23"/>
       <c r="D197" s="25" t="s">
@@ -12089,7 +12052,7 @@
         <v>0</v>
       </c>
       <c r="M197" s="39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="198" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -12097,7 +12060,7 @@
         <v>9309</v>
       </c>
       <c r="B198" s="64" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C198" s="65"/>
       <c r="D198" s="25" t="s">
@@ -12128,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="M198" s="39" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="199" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -12136,7 +12099,7 @@
         <v>9033</v>
       </c>
       <c r="B199" s="54" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C199" s="23"/>
       <c r="D199" s="25" t="s">
@@ -12167,7 +12130,7 @@
         <v>0</v>
       </c>
       <c r="M199" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="200" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -12175,7 +12138,7 @@
         <v>9019</v>
       </c>
       <c r="B200" s="54" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C200" s="23"/>
       <c r="D200" s="25" t="s">
@@ -12206,7 +12169,7 @@
         <v>0</v>
       </c>
       <c r="M200" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="201" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -12214,7 +12177,7 @@
         <v>9026</v>
       </c>
       <c r="B201" s="54" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C201" s="23"/>
       <c r="D201" s="25" t="s">
@@ -12245,7 +12208,7 @@
         <v>0</v>
       </c>
       <c r="M201" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="202" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -12253,7 +12216,7 @@
         <v>9040</v>
       </c>
       <c r="B202" s="55" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C202" s="32"/>
       <c r="D202" s="31" t="s">
@@ -12284,24 +12247,24 @@
         <v>0</v>
       </c>
       <c r="M202" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="203" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="72" t="s">
-        <v>364</v>
-      </c>
-      <c r="B203" s="121" t="s">
-        <v>330</v>
-      </c>
-      <c r="C203" s="121"/>
-      <c r="D203" s="121"/>
-      <c r="E203" s="122"/>
-      <c r="F203" s="114">
+        <v>363</v>
+      </c>
+      <c r="B203" s="89" t="s">
+        <v>329</v>
+      </c>
+      <c r="C203" s="89"/>
+      <c r="D203" s="89"/>
+      <c r="E203" s="90"/>
+      <c r="F203" s="82">
         <f>IF(M8="BA",'ST %'!B24,IF(M8="MG",'ST %'!B30,IF(M8="MT",'ST %'!E24,IF(M8="PR",'ST %'!E30,IF(M8="PR-SN",'ST %'!H24,IF(M8="SP",'ST %'!H30,IF(M8="RJ",'ST %'!K24,IF(M8="RS",'ST %'!K30,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="G203" s="115"/>
+      <c r="G203" s="83"/>
       <c r="H203" s="42">
         <f>SUM(H14:H202)</f>
         <v>0</v>
@@ -12315,135 +12278,115 @@
         <v>0</v>
       </c>
       <c r="K203" s="60" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L203" s="59">
         <f>SUM(L14:L202)</f>
         <v>0</v>
       </c>
       <c r="M203" s="61" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A204" s="119"/>
-      <c r="B204" s="119"/>
-      <c r="C204" s="119"/>
-      <c r="D204" s="119"/>
-      <c r="E204" s="119"/>
-      <c r="F204" s="119"/>
-      <c r="G204" s="119"/>
-      <c r="H204" s="119"/>
-      <c r="I204" s="108" t="s">
-        <v>329</v>
-      </c>
-      <c r="J204" s="118" t="s">
+      <c r="A204" s="88"/>
+      <c r="B204" s="88"/>
+      <c r="C204" s="88"/>
+      <c r="D204" s="88"/>
+      <c r="E204" s="88"/>
+      <c r="F204" s="88"/>
+      <c r="G204" s="88"/>
+      <c r="H204" s="88"/>
+      <c r="I204" s="95" t="s">
+        <v>328</v>
+      </c>
+      <c r="J204" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="K204" s="118"/>
-      <c r="L204" s="118"/>
-      <c r="M204" s="118"/>
+      <c r="K204" s="80"/>
+      <c r="L204" s="80"/>
+      <c r="M204" s="80"/>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A205" s="120"/>
-      <c r="B205" s="120"/>
-      <c r="C205" s="120"/>
-      <c r="D205" s="120"/>
-      <c r="E205" s="120"/>
-      <c r="F205" s="120"/>
-      <c r="G205" s="120"/>
-      <c r="H205" s="120"/>
-      <c r="I205" s="108"/>
-      <c r="J205" s="118" t="s">
+      <c r="A205" s="79"/>
+      <c r="B205" s="79"/>
+      <c r="C205" s="79"/>
+      <c r="D205" s="79"/>
+      <c r="E205" s="79"/>
+      <c r="F205" s="79"/>
+      <c r="G205" s="79"/>
+      <c r="H205" s="79"/>
+      <c r="I205" s="95"/>
+      <c r="J205" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="K205" s="118"/>
-      <c r="L205" s="118" t="s">
+      <c r="K205" s="80"/>
+      <c r="L205" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="M205" s="118"/>
+      <c r="M205" s="80"/>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A206" s="120"/>
-      <c r="B206" s="120"/>
-      <c r="C206" s="120"/>
-      <c r="D206" s="120"/>
-      <c r="E206" s="120"/>
-      <c r="F206" s="120"/>
-      <c r="G206" s="120"/>
-      <c r="H206" s="120"/>
-      <c r="I206" s="108"/>
-      <c r="J206" s="118" t="s">
+      <c r="A206" s="79"/>
+      <c r="B206" s="79"/>
+      <c r="C206" s="79"/>
+      <c r="D206" s="79"/>
+      <c r="E206" s="79"/>
+      <c r="F206" s="79"/>
+      <c r="G206" s="79"/>
+      <c r="H206" s="79"/>
+      <c r="I206" s="95"/>
+      <c r="J206" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="K206" s="118"/>
-      <c r="L206" s="118"/>
-      <c r="M206" s="118"/>
+      <c r="K206" s="80"/>
+      <c r="L206" s="80"/>
+      <c r="M206" s="80"/>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A207" s="120"/>
-      <c r="B207" s="120"/>
-      <c r="C207" s="120"/>
-      <c r="D207" s="120"/>
-      <c r="E207" s="120"/>
-      <c r="F207" s="120"/>
-      <c r="G207" s="120"/>
-      <c r="H207" s="120"/>
-      <c r="I207" s="108"/>
-      <c r="J207" s="123" t="s">
+      <c r="A207" s="79"/>
+      <c r="B207" s="79"/>
+      <c r="C207" s="79"/>
+      <c r="D207" s="79"/>
+      <c r="E207" s="79"/>
+      <c r="F207" s="79"/>
+      <c r="G207" s="79"/>
+      <c r="H207" s="79"/>
+      <c r="I207" s="95"/>
+      <c r="J207" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="K207" s="123"/>
-      <c r="L207" s="118" t="s">
+      <c r="K207" s="81"/>
+      <c r="L207" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="M207" s="118"/>
+      <c r="M207" s="80"/>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A208" s="120"/>
-      <c r="B208" s="120"/>
-      <c r="C208" s="120"/>
-      <c r="D208" s="120"/>
-      <c r="E208" s="120"/>
-      <c r="F208" s="120"/>
-      <c r="G208" s="120"/>
-      <c r="H208" s="120"/>
-      <c r="I208" s="108"/>
-      <c r="J208" s="123"/>
-      <c r="K208" s="123"/>
-      <c r="L208" s="118" t="s">
+      <c r="A208" s="79"/>
+      <c r="B208" s="79"/>
+      <c r="C208" s="79"/>
+      <c r="D208" s="79"/>
+      <c r="E208" s="79"/>
+      <c r="F208" s="79"/>
+      <c r="G208" s="79"/>
+      <c r="H208" s="79"/>
+      <c r="I208" s="95"/>
+      <c r="J208" s="81"/>
+      <c r="K208" s="81"/>
+      <c r="L208" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="M208" s="118"/>
+      <c r="M208" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A206:H206"/>
-    <mergeCell ref="A207:H207"/>
-    <mergeCell ref="A208:H208"/>
-    <mergeCell ref="J206:M206"/>
-    <mergeCell ref="J207:K208"/>
-    <mergeCell ref="L207:M207"/>
-    <mergeCell ref="L208:M208"/>
-    <mergeCell ref="F203:G203"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="J204:M204"/>
-    <mergeCell ref="J205:K205"/>
-    <mergeCell ref="L205:M205"/>
-    <mergeCell ref="A204:H204"/>
-    <mergeCell ref="A205:H205"/>
-    <mergeCell ref="B203:E203"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I204:I208"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:M12"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E9:H9"/>
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="J7:M7"/>
@@ -12454,15 +12397,35 @@
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="E10:H10"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="F203:G203"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="J204:M204"/>
+    <mergeCell ref="J205:K205"/>
+    <mergeCell ref="L205:M205"/>
+    <mergeCell ref="A204:H204"/>
+    <mergeCell ref="A205:H205"/>
+    <mergeCell ref="B203:E203"/>
+    <mergeCell ref="I204:I208"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:M12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A206:H206"/>
+    <mergeCell ref="A207:H207"/>
+    <mergeCell ref="A208:H208"/>
+    <mergeCell ref="J206:M206"/>
+    <mergeCell ref="J207:K208"/>
+    <mergeCell ref="L207:M207"/>
+    <mergeCell ref="L208:M208"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="83" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -12473,7 +12436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:L62"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
@@ -12848,7 +12811,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="124" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C18" s="124"/>
       <c r="D18" s="124"/>
@@ -13071,47 +13034,47 @@
     <row r="33" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="C34" s="19" t="s">
         <v>221</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C36" s="21" t="s">
         <v>224</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="C37" s="21" t="s">
         <v>228</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C38" s="21" t="s">
         <v>226</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>161</v>
@@ -13119,47 +13082,47 @@
     </row>
     <row r="40" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C40" s="21" t="s">
         <v>231</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C41" s="21" t="s">
         <v>233</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C42" s="21" t="s">
         <v>235</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C43" s="21" t="s">
         <v>237</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C44" s="21" t="s">
         <v>239</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C45" s="21" t="s">
         <v>160</v>
@@ -13167,15 +13130,15 @@
     </row>
     <row r="46" spans="2:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C46" s="21" t="s">
         <v>242</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C47" s="21" t="s">
         <v>170</v>
@@ -13183,47 +13146,47 @@
     </row>
     <row r="48" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C48" s="21" t="s">
         <v>245</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="C49" s="21" t="s">
         <v>247</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" s="21" t="s">
         <v>249</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B51" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="C51" s="21" t="s">
         <v>251</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="C52" s="21" t="s">
         <v>276</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C53" s="21" t="s">
         <v>159</v>
@@ -13231,7 +13194,7 @@
     </row>
     <row r="54" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C54" s="21" t="s">
         <v>157</v>
@@ -13239,31 +13202,31 @@
     </row>
     <row r="55" spans="2:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C55" s="21" t="s">
         <v>254</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="56" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C56" s="21" t="s">
         <v>257</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C57" s="21" t="s">
         <v>259</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B58" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C58" s="21" t="s">
         <v>158</v>
@@ -13271,23 +13234,23 @@
     </row>
     <row r="59" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B59" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C59" s="21" t="s">
         <v>261</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B60" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C60" s="21" t="s">
         <v>264</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="61" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B61" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C61" s="21" t="s">
         <v>156</v>
@@ -13295,14 +13258,14 @@
     </row>
     <row r="62" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B62" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="C62" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="C62" s="21" t="s">
-        <v>267</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="C34:C62">
+  <autoFilter ref="C34:C62" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B35:C62">
       <sortCondition ref="C34:C62"/>
     </sortState>
@@ -13318,32 +13281,32 @@
     <mergeCell ref="B3:L3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B35" r:id="rId1" display="https://www.todamateria.com.br/estado-do-acre/"/>
-    <hyperlink ref="B36" r:id="rId2" display="https://www.todamateria.com.br/estado-de-alagoas/"/>
-    <hyperlink ref="B38" r:id="rId3" display="https://www.todamateria.com.br/amapa/"/>
-    <hyperlink ref="B37" r:id="rId4" display="https://www.todamateria.com.br/estado-do-amazonas/"/>
-    <hyperlink ref="B39" r:id="rId5" display="https://www.todamateria.com.br/estado-da-bahia/"/>
-    <hyperlink ref="B40" r:id="rId6" display="https://www.todamateria.com.br/estado-do-ceara/"/>
-    <hyperlink ref="B41" r:id="rId7" display="https://www.todamateria.com.br/distrito-federal/"/>
-    <hyperlink ref="B42" r:id="rId8" display="https://www.todamateria.com.br/estado-do-espirito-santo/"/>
-    <hyperlink ref="B43" r:id="rId9" display="https://www.todamateria.com.br/estado-de-goias/"/>
-    <hyperlink ref="B44" r:id="rId10" display="https://www.todamateria.com.br/estado-do-maranhao/"/>
-    <hyperlink ref="B47" r:id="rId11" display="https://www.todamateria.com.br/estado-de-mato-grosso/"/>
-    <hyperlink ref="B46" r:id="rId12" display="https://www.todamateria.com.br/estado-do-mato-grosso-do-sul/"/>
-    <hyperlink ref="B45" r:id="rId13" display="https://www.todamateria.com.br/estado-de-minas-gerais/"/>
-    <hyperlink ref="B48" r:id="rId14" display="https://www.todamateria.com.br/estado-do-para/"/>
-    <hyperlink ref="B49" r:id="rId15" display="https://www.todamateria.com.br/estado-da-paraiba/"/>
-    <hyperlink ref="B50" r:id="rId16" display="https://www.todamateria.com.br/estado-de-pernambuco/"/>
-    <hyperlink ref="B51" r:id="rId17" display="https://www.todamateria.com.br/estado-do-piaui/"/>
-    <hyperlink ref="B54" r:id="rId18" display="https://www.todamateria.com.br/estado-do-rio-de-janeiro/"/>
-    <hyperlink ref="B55" r:id="rId19" display="https://www.todamateria.com.br/rio-grande-do-norte/"/>
-    <hyperlink ref="B58" r:id="rId20" display="https://www.todamateria.com.br/rio-grande-do-sul/"/>
-    <hyperlink ref="B56" r:id="rId21" display="https://www.todamateria.com.br/estado-de-rondonia/"/>
-    <hyperlink ref="B57" r:id="rId22" display="https://www.todamateria.com.br/estado-de-roraima/"/>
-    <hyperlink ref="B59" r:id="rId23" display="https://www.todamateria.com.br/estado-de-santa-catarina/"/>
-    <hyperlink ref="B61" r:id="rId24" display="https://www.todamateria.com.br/estado-de-sao-paulo/"/>
-    <hyperlink ref="B60" r:id="rId25" display="https://www.todamateria.com.br/estado-de-sergipe/"/>
-    <hyperlink ref="B62" r:id="rId26" display="https://www.todamateria.com.br/estado-do-tocantins/"/>
+    <hyperlink ref="B35" r:id="rId1" display="https://www.todamateria.com.br/estado-do-acre/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B36" r:id="rId2" display="https://www.todamateria.com.br/estado-de-alagoas/" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B38" r:id="rId3" display="https://www.todamateria.com.br/amapa/" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B37" r:id="rId4" display="https://www.todamateria.com.br/estado-do-amazonas/" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B39" r:id="rId5" display="https://www.todamateria.com.br/estado-da-bahia/" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B40" r:id="rId6" display="https://www.todamateria.com.br/estado-do-ceara/" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B41" r:id="rId7" display="https://www.todamateria.com.br/distrito-federal/" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="B42" r:id="rId8" display="https://www.todamateria.com.br/estado-do-espirito-santo/" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="B43" r:id="rId9" display="https://www.todamateria.com.br/estado-de-goias/" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="B44" r:id="rId10" display="https://www.todamateria.com.br/estado-do-maranhao/" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="B47" r:id="rId11" display="https://www.todamateria.com.br/estado-de-mato-grosso/" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="B46" r:id="rId12" display="https://www.todamateria.com.br/estado-do-mato-grosso-do-sul/" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="B45" r:id="rId13" display="https://www.todamateria.com.br/estado-de-minas-gerais/" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="B48" r:id="rId14" display="https://www.todamateria.com.br/estado-do-para/" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="B49" r:id="rId15" display="https://www.todamateria.com.br/estado-da-paraiba/" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="B50" r:id="rId16" display="https://www.todamateria.com.br/estado-de-pernambuco/" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="B51" r:id="rId17" display="https://www.todamateria.com.br/estado-do-piaui/" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="B54" r:id="rId18" display="https://www.todamateria.com.br/estado-do-rio-de-janeiro/" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="B55" r:id="rId19" display="https://www.todamateria.com.br/rio-grande-do-norte/" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="B58" r:id="rId20" display="https://www.todamateria.com.br/rio-grande-do-sul/" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="B56" r:id="rId21" display="https://www.todamateria.com.br/estado-de-rondonia/" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="B57" r:id="rId22" display="https://www.todamateria.com.br/estado-de-roraima/" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="B59" r:id="rId23" display="https://www.todamateria.com.br/estado-de-santa-catarina/" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="B61" r:id="rId24" display="https://www.todamateria.com.br/estado-de-sao-paulo/" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="B60" r:id="rId25" display="https://www.todamateria.com.br/estado-de-sergipe/" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="B62" r:id="rId26" display="https://www.todamateria.com.br/estado-do-tocantins/" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId27"/>
